--- a/inst/extdata/newparties.xlsx
+++ b/inst/extdata/newparties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Git_Projekte\bundeslaendeR\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertstelzle/Documents/addingsaarland/bundeslaendeR/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E499D7-2D7B-49DB-ABA0-046D98766E9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34AE7D68-A2D5-5444-8527-D8E0D8D95AB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>partyname_short</t>
   </si>
@@ -133,6 +133,18 @@
   </si>
   <si>
     <t>https://de.wikipedia.org/wiki/Bildet_Berlin!</t>
+  </si>
+  <si>
+    <t>bunt.saar</t>
+  </si>
+  <si>
+    <t>https://de.wikipedia.org/wiki/Bunt.saar</t>
+  </si>
+  <si>
+    <t>SGV Solidarität, Gerechtigkeit, Veränderung</t>
+  </si>
+  <si>
+    <t>SGV</t>
   </si>
 </sst>
 </file>
@@ -450,25 +462,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -494,7 +506,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -508,7 +520,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -516,7 +528,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -527,7 +539,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -538,7 +550,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -549,7 +561,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -560,7 +572,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -571,7 +583,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -579,7 +591,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -588,6 +600,25 @@
       </c>
       <c r="H10" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/newparties.xlsx
+++ b/inst/extdata/newparties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertstelzle/Documents/addingsaarland/bundeslaendeR/inst/extdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Desktop\bldrt\bundeslaendeR\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34AE7D68-A2D5-5444-8527-D8E0D8D95AB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD5D3BCB-F9D1-4CB5-8B76-8695DF1C6623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
   <si>
     <t>partyname_short</t>
   </si>
@@ -145,6 +145,51 @@
   </si>
   <si>
     <t>SGV</t>
+  </si>
+  <si>
+    <t>Sport</t>
+  </si>
+  <si>
+    <t>Deutsche Sportpartei</t>
+  </si>
+  <si>
+    <t>https://vereins.fandom.com/wiki/Deutsche_Sportpartei</t>
+  </si>
+  <si>
+    <t>Liebe</t>
+  </si>
+  <si>
+    <t>Europäische Partei Liebe</t>
+  </si>
+  <si>
+    <t>https://de.wikipedia.org/wiki/Europ%C3%A4ische_Partei_Liebe</t>
+  </si>
+  <si>
+    <t>neo</t>
+  </si>
+  <si>
+    <t>neo. Wohlstand für alle</t>
+  </si>
+  <si>
+    <t>https://www.bpb.de/themen/parteien/wer-steht-zur-wahl/nordrhein-westfalen-2022/507345/neo-wohlstand-fuer-alle/</t>
+  </si>
+  <si>
+    <t>Partei des Fortschritts</t>
+  </si>
+  <si>
+    <t>https://de.wikipedia.org/wiki/Partei_des_Fortschritts</t>
+  </si>
+  <si>
+    <t>PdF</t>
+  </si>
+  <si>
+    <t>LfK</t>
+  </si>
+  <si>
+    <t>Partei für Kinder, Jugendliche und Familien - Lobbyisten für Kinder</t>
+  </si>
+  <si>
+    <t>https://de.wikipedia.org/wiki/Lobbyisten_f%C3%BCr_Kinder</t>
   </si>
 </sst>
 </file>
@@ -180,8 +225,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -462,25 +508,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -506,7 +552,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -520,7 +566,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -528,7 +574,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -539,7 +585,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -550,7 +596,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -561,7 +607,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -572,7 +618,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -583,7 +629,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -591,7 +637,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -602,7 +648,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -613,12 +659,67 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>36</v>
       </c>
       <c r="B12" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/newparties.xlsx
+++ b/inst/extdata/newparties.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Desktop\bldrt\bundeslaendeR\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Desktop\add\bundeslaendeR\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD5D3BCB-F9D1-4CB5-8B76-8695DF1C6623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7CB4E5-9408-467B-9251-8D5BD99E2FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="58">
   <si>
     <t>partyname_short</t>
   </si>
@@ -190,6 +190,24 @@
   </si>
   <si>
     <t>https://de.wikipedia.org/wiki/Lobbyisten_f%C3%BCr_Kinder</t>
+  </si>
+  <si>
+    <t>GFA</t>
+  </si>
+  <si>
+    <t>Grundeinkommen für Alle</t>
+  </si>
+  <si>
+    <t>https://de.wikipedia.org/wiki/Grundeinkommen_f%C3%BCr_Alle</t>
+  </si>
+  <si>
+    <t>MERA25</t>
+  </si>
+  <si>
+    <t>https://de.wikipedia.org/wiki/MERA25</t>
+  </si>
+  <si>
+    <t>German wing of DiEM25 movement</t>
   </si>
 </sst>
 </file>
@@ -225,9 +243,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -508,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -685,7 +702,7 @@
       <c r="B14" t="s">
         <v>41</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" t="s">
         <v>42</v>
       </c>
     </row>
@@ -696,7 +713,7 @@
       <c r="B15" t="s">
         <v>44</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" t="s">
         <v>45</v>
       </c>
     </row>
@@ -707,7 +724,7 @@
       <c r="B16" t="s">
         <v>46</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" t="s">
         <v>47</v>
       </c>
     </row>
@@ -718,8 +735,33 @@
       <c r="B17" t="s">
         <v>50</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="H18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" t="s">
+        <v>57</v>
+      </c>
+      <c r="H19" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/newparties.xlsx
+++ b/inst/extdata/newparties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Desktop\add\bundeslaendeR\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7CB4E5-9408-467B-9251-8D5BD99E2FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A927DD6E-6D98-4D71-AB4C-383AE36745CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="68">
   <si>
     <t>partyname_short</t>
   </si>
@@ -208,6 +208,36 @@
   </si>
   <si>
     <t>German wing of DiEM25 movement</t>
+  </si>
+  <si>
+    <t>ABG</t>
+  </si>
+  <si>
+    <t>Aktion Bürger für Gerechtigkeit</t>
+  </si>
+  <si>
+    <t>https://www.bpb.de/themen/parteien/wer-steht-zur-wahl/hessen-2023/539442/aktion-buerger-fuer-gerechtigkeit/</t>
+  </si>
+  <si>
+    <t>DNM</t>
+  </si>
+  <si>
+    <t>Die Neue Mitte</t>
+  </si>
+  <si>
+    <t>https://www.bpb.de/themen/parteien/wer-steht-zur-wahl/hessen-2023/539446/die-neue-mitte/</t>
+  </si>
+  <si>
+    <t>WKH</t>
+  </si>
+  <si>
+    <t>https://www.bpb.de/themen/parteien/wer-steht-zur-wahl/hessen-2023/539448/waehlerliste-klimaliste-hessen/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wählerliste Klimaliste Hessen </t>
+  </si>
+  <si>
+    <t>Not formally affiliated with the Klimaliste</t>
   </si>
 </sst>
 </file>
@@ -525,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,6 +794,42 @@
         <v>56</v>
       </c>
     </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" t="s">
+        <v>59</v>
+      </c>
+      <c r="H20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" t="s">
+        <v>62</v>
+      </c>
+      <c r="H21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" t="s">
+        <v>66</v>
+      </c>
+      <c r="G22" t="s">
+        <v>67</v>
+      </c>
+      <c r="H22" t="s">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/inst/extdata/newparties.xlsx
+++ b/inst/extdata/newparties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Desktop\add\bundeslaendeR\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\au785183\git_projects\bundeslaendeR\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A927DD6E-6D98-4D71-AB4C-383AE36745CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{878F436E-A18B-46CD-A58A-DCC835F790C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="98">
   <si>
     <t>partyname_short</t>
   </si>
@@ -238,6 +238,96 @@
   </si>
   <si>
     <t>Not formally affiliated with the Klimaliste</t>
+  </si>
+  <si>
+    <t>BD</t>
+  </si>
+  <si>
+    <t>Bündnis Deutschland</t>
+  </si>
+  <si>
+    <t>https://de.wikipedia.org/wiki/B%C3%BCndnis_Deutschland</t>
+  </si>
+  <si>
+    <t>BSW</t>
+  </si>
+  <si>
+    <t>Bündnis Sahra Wagenknecht</t>
+  </si>
+  <si>
+    <t>https://de.wikipedia.org/wiki/B%C3%BCndnis_Sahra_Wagenknecht</t>
+  </si>
+  <si>
+    <t>FS (2021)</t>
+  </si>
+  <si>
+    <t>Freie Sachsen (2021)</t>
+  </si>
+  <si>
+    <t>Not to be confused with the previous party also called Freie Sachsen.</t>
+  </si>
+  <si>
+    <t>https://de.wikipedia.org/wiki/Freie_Sachsen_(2021)</t>
+  </si>
+  <si>
+    <t>WU</t>
+  </si>
+  <si>
+    <t>WerteUnion</t>
+  </si>
+  <si>
+    <t>https://de.wikipedia.org/wiki/Werteunion</t>
+  </si>
+  <si>
+    <t>PB</t>
+  </si>
+  <si>
+    <t>Plus Brandenburg</t>
+  </si>
+  <si>
+    <t>Joint list of Pirate Party, ÖDP and Volt for 2024 Brandenburg election</t>
+  </si>
+  <si>
+    <t>https://de.wikipedia.org/wiki/Plus_Brandenburg</t>
+  </si>
+  <si>
+    <t>DLW</t>
+  </si>
+  <si>
+    <t>Deutsch Land Wirtschaft</t>
+  </si>
+  <si>
+    <t>https://de.wikipedia.org/wiki/Deutsch_Land_Wirtschaft</t>
+  </si>
+  <si>
+    <t>Die Wahl für Frieden und soziale Gerechtigkeit</t>
+  </si>
+  <si>
+    <t>WFG</t>
+  </si>
+  <si>
+    <t>https://de.wikipedia.org/wiki/Die_Wahl_f%C3%BCr_Frieden_und_soziale_Gerechtigkeit</t>
+  </si>
+  <si>
+    <t>DAVA</t>
+  </si>
+  <si>
+    <t>Demokratische Allianz für Vielfalt und Aufbruch</t>
+  </si>
+  <si>
+    <t>https://de.wikipedia.org/wiki/Demokratische_Allianz_f%C3%BCr_Vielfalt_und_Aufbruch</t>
+  </si>
+  <si>
+    <t>NPD (2023)</t>
+  </si>
+  <si>
+    <t>Nationaldemokratische Partei Deutschlands (2023)</t>
+  </si>
+  <si>
+    <t>https://de.wikipedia.org/wiki/Nationaldemokratische_Partei_Deutschlands_(2023)</t>
+  </si>
+  <si>
+    <t>Split from the old NPD after the party renamed itself to Die Heimat</t>
   </si>
 </sst>
 </file>
@@ -277,7 +367,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -555,13 +645,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.42578125" bestFit="1" customWidth="1"/>
@@ -830,6 +920,117 @@
         <v>65</v>
       </c>
     </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" t="s">
+        <v>69</v>
+      </c>
+      <c r="H23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24">
+        <v>313</v>
+      </c>
+      <c r="H24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" t="s">
+        <v>75</v>
+      </c>
+      <c r="G25" t="s">
+        <v>76</v>
+      </c>
+      <c r="H25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" t="s">
+        <v>79</v>
+      </c>
+      <c r="H26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" t="s">
+        <v>82</v>
+      </c>
+      <c r="G27" t="s">
+        <v>83</v>
+      </c>
+      <c r="H27" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" t="s">
+        <v>86</v>
+      </c>
+      <c r="H28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>89</v>
+      </c>
+      <c r="B29" t="s">
+        <v>88</v>
+      </c>
+      <c r="H29" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>91</v>
+      </c>
+      <c r="B30" t="s">
+        <v>92</v>
+      </c>
+      <c r="H30" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>94</v>
+      </c>
+      <c r="B31" t="s">
+        <v>95</v>
+      </c>
+      <c r="G31" t="s">
+        <v>97</v>
+      </c>
+      <c r="H31" t="s">
+        <v>96</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
